--- a/Excel_Challenge_607 - Sort Odd Numbers First.xlsx
+++ b/Excel_Challenge_607 - Sort Odd Numbers First.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mbieg\Dropbox\GitHub\PowerQueryBitsAndPieces\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2840B06E-F2BC-42EE-AA21-959562B6DDE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9833755B-2DB0-4900-B69E-5C5C8646881D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Original" sheetId="1" r:id="rId1"/>
+    <sheet name="EDA" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -35,8 +36,30 @@
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="5">
   <si>
     <t>Answer Expected</t>
   </si>
@@ -573,8 +596,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:U16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AE12" sqref="AE12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E4" sqref="E4:E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -836,4 +859,460 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{260E19C5-5323-48C6-92AE-5ADE76B30061}">
+  <dimension ref="A1:U16"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="W15" sqref="W15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="4.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="12" max="12" width="8.109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="8.109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="5.77734375" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="8" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="E1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="U1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>92</v>
+      </c>
+      <c r="B3">
+        <v>11</v>
+      </c>
+      <c r="C3">
+        <v>88</v>
+      </c>
+      <c r="E3">
+        <v>13</v>
+      </c>
+      <c r="F3">
+        <v>11</v>
+      </c>
+      <c r="G3">
+        <v>27</v>
+      </c>
+      <c r="L3" cm="1">
+        <f t="array" ref="L3:L16">_xlfn.VSTACK(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(A3:A16,ISODD(A3:A16+0))),_xlfn._xlws.SORT(_xlfn._xlws.FILTER(A3:A16,MOD(A3:A16,2)=0)))</f>
+        <v>13</v>
+      </c>
+      <c r="M3" cm="1">
+        <f t="array" ref="M3:M8">_xlfn.VSTACK(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(B3:B8,ISODD(B3:B8+0))),_xlfn._xlws.SORT(_xlfn._xlws.FILTER(B3:B8,MOD(B3:B8,2)=0)))</f>
+        <v>11</v>
+      </c>
+      <c r="N3" cm="1">
+        <f t="array" ref="N3:N14">_xlfn.VSTACK(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(C3:C14,ISODD(C3:C14+0))),_xlfn._xlws.SORT(_xlfn._xlws.FILTER(C3:C14,MOD(C3:C14,2)=0)))</f>
+        <v>27</v>
+      </c>
+      <c r="Q3" t="b" cm="1">
+        <f t="array" ref="Q3:Q16">ISODD(A3:A16+0)</f>
+        <v>0</v>
+      </c>
+      <c r="S3" t="b" cm="1">
+        <f t="array" ref="S3:S16">ISTEXT(A3:A16)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>67</v>
+      </c>
+      <c r="B4">
+        <v>48</v>
+      </c>
+      <c r="C4">
+        <v>64</v>
+      </c>
+      <c r="E4">
+        <v>35</v>
+      </c>
+      <c r="F4">
+        <v>31</v>
+      </c>
+      <c r="G4">
+        <v>39</v>
+      </c>
+      <c r="L4">
+        <v>35</v>
+      </c>
+      <c r="M4">
+        <v>31</v>
+      </c>
+      <c r="N4">
+        <v>39</v>
+      </c>
+      <c r="Q4" t="b">
+        <v>1</v>
+      </c>
+      <c r="S4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>79</v>
+      </c>
+      <c r="B5">
+        <v>77</v>
+      </c>
+      <c r="C5">
+        <v>43</v>
+      </c>
+      <c r="E5">
+        <v>49</v>
+      </c>
+      <c r="F5">
+        <v>41</v>
+      </c>
+      <c r="G5">
+        <v>43</v>
+      </c>
+      <c r="L5">
+        <v>49</v>
+      </c>
+      <c r="M5">
+        <v>41</v>
+      </c>
+      <c r="N5">
+        <v>43</v>
+      </c>
+      <c r="Q5" t="b">
+        <v>1</v>
+      </c>
+      <c r="S5" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>93</v>
+      </c>
+      <c r="B6">
+        <v>31</v>
+      </c>
+      <c r="C6">
+        <v>39</v>
+      </c>
+      <c r="E6">
+        <v>53</v>
+      </c>
+      <c r="F6">
+        <v>77</v>
+      </c>
+      <c r="G6">
+        <v>49</v>
+      </c>
+      <c r="L6">
+        <v>53</v>
+      </c>
+      <c r="M6">
+        <v>77</v>
+      </c>
+      <c r="N6">
+        <v>49</v>
+      </c>
+      <c r="Q6" t="b">
+        <v>1</v>
+      </c>
+      <c r="S6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>85</v>
+      </c>
+      <c r="B7">
+        <v>41</v>
+      </c>
+      <c r="C7">
+        <v>38</v>
+      </c>
+      <c r="E7">
+        <v>67</v>
+      </c>
+      <c r="F7">
+        <v>30</v>
+      </c>
+      <c r="G7">
+        <v>71</v>
+      </c>
+      <c r="L7">
+        <v>67</v>
+      </c>
+      <c r="M7">
+        <v>30</v>
+      </c>
+      <c r="N7">
+        <v>71</v>
+      </c>
+      <c r="Q7" t="b">
+        <v>1</v>
+      </c>
+      <c r="S7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>13</v>
+      </c>
+      <c r="B8">
+        <v>30</v>
+      </c>
+      <c r="C8">
+        <v>22</v>
+      </c>
+      <c r="E8">
+        <v>79</v>
+      </c>
+      <c r="F8">
+        <v>48</v>
+      </c>
+      <c r="G8">
+        <v>75</v>
+      </c>
+      <c r="L8">
+        <v>79</v>
+      </c>
+      <c r="M8">
+        <v>48</v>
+      </c>
+      <c r="N8">
+        <v>75</v>
+      </c>
+      <c r="Q8" t="b">
+        <v>1</v>
+      </c>
+      <c r="S8" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>58</v>
+      </c>
+      <c r="C9">
+        <v>71</v>
+      </c>
+      <c r="E9">
+        <v>85</v>
+      </c>
+      <c r="G9">
+        <v>99</v>
+      </c>
+      <c r="L9">
+        <v>85</v>
+      </c>
+      <c r="N9">
+        <v>99</v>
+      </c>
+      <c r="Q9" t="b">
+        <v>0</v>
+      </c>
+      <c r="S9" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>85</v>
+      </c>
+      <c r="C10">
+        <v>48</v>
+      </c>
+      <c r="E10">
+        <v>85</v>
+      </c>
+      <c r="G10">
+        <v>22</v>
+      </c>
+      <c r="L10">
+        <v>85</v>
+      </c>
+      <c r="N10">
+        <v>22</v>
+      </c>
+      <c r="Q10" t="b">
+        <v>1</v>
+      </c>
+      <c r="S10" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>49</v>
+      </c>
+      <c r="C11">
+        <v>27</v>
+      </c>
+      <c r="E11">
+        <v>93</v>
+      </c>
+      <c r="G11">
+        <v>38</v>
+      </c>
+      <c r="L11">
+        <v>93</v>
+      </c>
+      <c r="N11">
+        <v>38</v>
+      </c>
+      <c r="Q11" t="b">
+        <v>1</v>
+      </c>
+      <c r="S11" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>53</v>
+      </c>
+      <c r="C12">
+        <v>99</v>
+      </c>
+      <c r="E12">
+        <v>99</v>
+      </c>
+      <c r="G12">
+        <v>48</v>
+      </c>
+      <c r="L12">
+        <v>99</v>
+      </c>
+      <c r="N12">
+        <v>48</v>
+      </c>
+      <c r="Q12" t="b">
+        <v>1</v>
+      </c>
+      <c r="S12" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>99</v>
+      </c>
+      <c r="C13">
+        <v>49</v>
+      </c>
+      <c r="E13">
+        <v>34</v>
+      </c>
+      <c r="G13">
+        <v>64</v>
+      </c>
+      <c r="L13">
+        <v>34</v>
+      </c>
+      <c r="N13">
+        <v>64</v>
+      </c>
+      <c r="Q13" t="b">
+        <v>1</v>
+      </c>
+      <c r="S13" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>34</v>
+      </c>
+      <c r="C14">
+        <v>75</v>
+      </c>
+      <c r="E14">
+        <v>58</v>
+      </c>
+      <c r="G14">
+        <v>88</v>
+      </c>
+      <c r="L14">
+        <v>58</v>
+      </c>
+      <c r="N14">
+        <v>88</v>
+      </c>
+      <c r="Q14" t="b">
+        <v>0</v>
+      </c>
+      <c r="S14" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>35</v>
+      </c>
+      <c r="E15">
+        <v>64</v>
+      </c>
+      <c r="L15">
+        <v>64</v>
+      </c>
+      <c r="Q15" t="b">
+        <v>1</v>
+      </c>
+      <c r="S15" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>64</v>
+      </c>
+      <c r="E16">
+        <v>92</v>
+      </c>
+      <c r="L16">
+        <v>92</v>
+      </c>
+      <c r="Q16" t="b">
+        <v>0</v>
+      </c>
+      <c r="S16" t="b">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Excel_Challenge_607 - Sort Odd Numbers First.xlsx
+++ b/Excel_Challenge_607 - Sort Odd Numbers First.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mbieg\Dropbox\GitHub\PowerQueryBitsAndPieces\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9833755B-2DB0-4900-B69E-5C5C8646881D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9392310E-6B81-4D3E-A42C-82F6BF0C75C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Original" sheetId="1" r:id="rId1"/>
     <sheet name="EDA" sheetId="2" r:id="rId2"/>
+    <sheet name="Alt1" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -59,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="5">
   <si>
     <t>Answer Expected</t>
   </si>
@@ -592,6 +593,33 @@
 </a:theme>
 </file>
 
+<file path=xl/webextensions/taskpanes.xml><?xml version="1.0" encoding="utf-8"?>
+<wetp:taskpanes xmlns:wetp="http://schemas.microsoft.com/office/webextensions/taskpanes/2010/11">
+  <wetp:taskpane dockstate="right" visibility="0" width="976" row="9">
+    <wetp:webextensionref xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+  </wetp:taskpane>
+</wetp:taskpanes>
+</file>
+
+<file path=xl/webextensions/webextension1.xml><?xml version="1.0" encoding="utf-8"?>
+<we:webextension xmlns:we="http://schemas.microsoft.com/office/webextensions/webextension/2010/11" id="{DAD10318-6709-40B5-BDDA-BE0C8473AC5F}">
+  <we:reference id="wa200003696" version="1.3.0.0" store="en-US" storeType="OMEX"/>
+  <we:alternateReferences>
+    <we:reference id="wa200003696" version="1.3.0.0" store="" storeType="OMEX"/>
+  </we:alternateReferences>
+  <we:properties/>
+  <we:bindings/>
+  <we:snapshot xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"/>
+  <we:extLst>
+    <a:ext xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" uri="{7C84B067-C214-45C3-A712-C9D94CD141B2}">
+      <we:customFunctionIdList>
+        <we:customFunctionIds>_xldudf_LABS_GENERATIVEAI</we:customFunctionIds>
+      </we:customFunctionIdList>
+    </a:ext>
+  </we:extLst>
+</we:webextension>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:U16"/>
@@ -865,8 +893,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{260E19C5-5323-48C6-92AE-5ADE76B30061}">
   <dimension ref="A1:U16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="W15" sqref="W15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L18" sqref="L18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1315,4 +1343,567 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{072A9761-4FA0-4541-8C6C-23058228B328}">
+  <dimension ref="A1:U31"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="4.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="6" max="8" width="5.44140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="E1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="U1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>92</v>
+      </c>
+      <c r="B3">
+        <v>11</v>
+      </c>
+      <c r="C3">
+        <v>88</v>
+      </c>
+      <c r="E3">
+        <v>13</v>
+      </c>
+      <c r="F3">
+        <v>11</v>
+      </c>
+      <c r="G3">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>67</v>
+      </c>
+      <c r="B4">
+        <v>48</v>
+      </c>
+      <c r="C4">
+        <v>64</v>
+      </c>
+      <c r="E4">
+        <v>35</v>
+      </c>
+      <c r="F4">
+        <v>31</v>
+      </c>
+      <c r="G4">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>79</v>
+      </c>
+      <c r="B5">
+        <v>77</v>
+      </c>
+      <c r="C5">
+        <v>43</v>
+      </c>
+      <c r="E5">
+        <v>49</v>
+      </c>
+      <c r="F5">
+        <v>41</v>
+      </c>
+      <c r="G5">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>93</v>
+      </c>
+      <c r="B6">
+        <v>31</v>
+      </c>
+      <c r="C6">
+        <v>39</v>
+      </c>
+      <c r="E6">
+        <v>53</v>
+      </c>
+      <c r="F6">
+        <v>77</v>
+      </c>
+      <c r="G6">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>85</v>
+      </c>
+      <c r="B7">
+        <v>41</v>
+      </c>
+      <c r="C7">
+        <v>38</v>
+      </c>
+      <c r="E7">
+        <v>67</v>
+      </c>
+      <c r="F7">
+        <v>30</v>
+      </c>
+      <c r="G7">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>13</v>
+      </c>
+      <c r="B8">
+        <v>30</v>
+      </c>
+      <c r="C8">
+        <v>22</v>
+      </c>
+      <c r="E8">
+        <v>79</v>
+      </c>
+      <c r="F8">
+        <v>48</v>
+      </c>
+      <c r="G8">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>58</v>
+      </c>
+      <c r="C9">
+        <v>71</v>
+      </c>
+      <c r="E9">
+        <v>85</v>
+      </c>
+      <c r="G9">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>85</v>
+      </c>
+      <c r="C10">
+        <v>48</v>
+      </c>
+      <c r="E10">
+        <v>85</v>
+      </c>
+      <c r="G10">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>49</v>
+      </c>
+      <c r="C11">
+        <v>27</v>
+      </c>
+      <c r="E11">
+        <v>93</v>
+      </c>
+      <c r="G11">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>53</v>
+      </c>
+      <c r="C12">
+        <v>99</v>
+      </c>
+      <c r="E12">
+        <v>99</v>
+      </c>
+      <c r="G12">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>99</v>
+      </c>
+      <c r="C13">
+        <v>49</v>
+      </c>
+      <c r="E13">
+        <v>34</v>
+      </c>
+      <c r="G13">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>34</v>
+      </c>
+      <c r="C14">
+        <v>75</v>
+      </c>
+      <c r="E14">
+        <v>58</v>
+      </c>
+      <c r="G14">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>35</v>
+      </c>
+      <c r="E15">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>64</v>
+      </c>
+      <c r="E16">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B18" cm="1">
+        <f t="array" ref="B18:D31">_xlfn.LET(
+    _xlpm.d, _xlfn.DROP(
+        _xlfn.REDUCE(
+            0,
+            ROW(1:3),
+            _xlfn.LAMBDA(_xlpm.x,_xlpm.y,
+                _xlfn.LET(_xlpm.a, _xlfn._xlws.SORT(_xlfn.CHOOSECOLS(A3:C16, _xlpm.y)), _xlfn.HSTACK(_xlpm.x, _xlfn.SORTBY(_xlpm.a, ISEVEN(_xlpm.a))))
+            )
+        ),
+        ,
+        1
+    ),
+    IF(_xlpm.d, _xlpm.d, "")
+)</f>
+        <v>13</v>
+      </c>
+      <c r="C18">
+        <v>11</v>
+      </c>
+      <c r="D18">
+        <v>27</v>
+      </c>
+      <c r="F18" t="b" cm="1">
+        <f t="array" ref="F18:H31">_xlfn.ANCHORARRAY(B18)=E3:G16</f>
+        <v>1</v>
+      </c>
+      <c r="G18" t="b">
+        <v>1</v>
+      </c>
+      <c r="H18" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B19">
+        <v>35</v>
+      </c>
+      <c r="C19">
+        <v>31</v>
+      </c>
+      <c r="D19">
+        <v>39</v>
+      </c>
+      <c r="F19" t="b">
+        <v>1</v>
+      </c>
+      <c r="G19" t="b">
+        <v>1</v>
+      </c>
+      <c r="H19" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B20">
+        <v>49</v>
+      </c>
+      <c r="C20">
+        <v>41</v>
+      </c>
+      <c r="D20">
+        <v>43</v>
+      </c>
+      <c r="F20" t="b">
+        <v>1</v>
+      </c>
+      <c r="G20" t="b">
+        <v>1</v>
+      </c>
+      <c r="H20" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B21">
+        <v>53</v>
+      </c>
+      <c r="C21">
+        <v>77</v>
+      </c>
+      <c r="D21">
+        <v>49</v>
+      </c>
+      <c r="F21" t="b">
+        <v>1</v>
+      </c>
+      <c r="G21" t="b">
+        <v>1</v>
+      </c>
+      <c r="H21" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B22">
+        <v>67</v>
+      </c>
+      <c r="C22">
+        <v>30</v>
+      </c>
+      <c r="D22">
+        <v>71</v>
+      </c>
+      <c r="F22" t="b">
+        <v>1</v>
+      </c>
+      <c r="G22" t="b">
+        <v>1</v>
+      </c>
+      <c r="H22" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B23">
+        <v>79</v>
+      </c>
+      <c r="C23">
+        <v>48</v>
+      </c>
+      <c r="D23">
+        <v>75</v>
+      </c>
+      <c r="F23" t="b">
+        <v>1</v>
+      </c>
+      <c r="G23" t="b">
+        <v>1</v>
+      </c>
+      <c r="H23" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B24">
+        <v>85</v>
+      </c>
+      <c r="C24" t="str">
+        <v/>
+      </c>
+      <c r="D24">
+        <v>99</v>
+      </c>
+      <c r="F24" t="b">
+        <v>1</v>
+      </c>
+      <c r="G24" t="b">
+        <v>1</v>
+      </c>
+      <c r="H24" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B25">
+        <v>85</v>
+      </c>
+      <c r="C25" t="str">
+        <v/>
+      </c>
+      <c r="D25">
+        <v>22</v>
+      </c>
+      <c r="F25" t="b">
+        <v>1</v>
+      </c>
+      <c r="G25" t="b">
+        <v>1</v>
+      </c>
+      <c r="H25" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B26">
+        <v>93</v>
+      </c>
+      <c r="C26" t="str">
+        <v/>
+      </c>
+      <c r="D26">
+        <v>38</v>
+      </c>
+      <c r="F26" t="b">
+        <v>1</v>
+      </c>
+      <c r="G26" t="b">
+        <v>1</v>
+      </c>
+      <c r="H26" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B27">
+        <v>99</v>
+      </c>
+      <c r="C27" t="str">
+        <v/>
+      </c>
+      <c r="D27">
+        <v>48</v>
+      </c>
+      <c r="F27" t="b">
+        <v>1</v>
+      </c>
+      <c r="G27" t="b">
+        <v>1</v>
+      </c>
+      <c r="H27" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B28">
+        <v>34</v>
+      </c>
+      <c r="C28" t="str">
+        <v/>
+      </c>
+      <c r="D28">
+        <v>64</v>
+      </c>
+      <c r="F28" t="b">
+        <v>1</v>
+      </c>
+      <c r="G28" t="b">
+        <v>1</v>
+      </c>
+      <c r="H28" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B29">
+        <v>58</v>
+      </c>
+      <c r="C29" t="str">
+        <v/>
+      </c>
+      <c r="D29">
+        <v>88</v>
+      </c>
+      <c r="F29" t="b">
+        <v>1</v>
+      </c>
+      <c r="G29" t="b">
+        <v>1</v>
+      </c>
+      <c r="H29" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B30">
+        <v>64</v>
+      </c>
+      <c r="C30" t="str">
+        <v/>
+      </c>
+      <c r="D30" t="str">
+        <v/>
+      </c>
+      <c r="F30" t="b">
+        <v>1</v>
+      </c>
+      <c r="G30" t="b">
+        <v>1</v>
+      </c>
+      <c r="H30" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B31">
+        <v>92</v>
+      </c>
+      <c r="C31" t="str">
+        <v/>
+      </c>
+      <c r="D31" t="str">
+        <v/>
+      </c>
+      <c r="F31" t="b">
+        <v>1</v>
+      </c>
+      <c r="G31" t="b">
+        <v>1</v>
+      </c>
+      <c r="H31" t="b">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Excel_Challenge_607 - Sort Odd Numbers First.xlsx
+++ b/Excel_Challenge_607 - Sort Odd Numbers First.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mbieg\Dropbox\GitHub\PowerQueryBitsAndPieces\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9392310E-6B81-4D3E-A42C-82F6BF0C75C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F102768-FB17-4299-9FF8-E96BD4B56985}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="6">
   <si>
     <t>Answer Expected</t>
   </si>
@@ -75,6 +75,9 @@
   </si>
   <si>
     <t>https://www.linkedin.com/in/excelbi/recent-activity/all/</t>
+  </si>
+  <si>
+    <t>Uses the stability of the Excel Sort. Important observations.</t>
   </si>
 </sst>
 </file>
@@ -611,6 +614,9 @@
   <we:bindings/>
   <we:snapshot xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"/>
   <we:extLst>
+    <a:ext xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" uri="{D87F86FE-615C-45B5-9D79-34F1136793EB}">
+      <we:containsCustomFunctions/>
+    </a:ext>
     <a:ext xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" uri="{7C84B067-C214-45C3-A712-C9D94CD141B2}">
       <we:customFunctionIdList>
         <we:customFunctionIds>_xldudf_LABS_GENERATIVEAI</we:customFunctionIds>
@@ -1349,8 +1355,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{072A9761-4FA0-4541-8C6C-23058228B328}">
   <dimension ref="A1:U31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="N18" sqref="N18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1606,6 +1612,9 @@
       </c>
       <c r="E16">
         <v>92</v>
+      </c>
+      <c r="J16" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.3">
